--- a/data/mall-swarm/mall-gateway_structure.xlsx
+++ b/data/mall-swarm/mall-gateway_structure.xlsx
@@ -244,21 +244,27 @@
     <t>org.springframework.cloud.gateway.route.RouteLocator</t>
   </si>
   <si>
+    <t>gatewayProperties</t>
+  </si>
+  <si>
+    <t>org.springframework.cloud.gateway.config.GatewayProperties</t>
+  </si>
+  <si>
     <t>log</t>
   </si>
   <si>
     <t>org.slf4j.Logger</t>
   </si>
   <si>
-    <t>gatewayProperties</t>
-  </si>
-  <si>
-    <t>org.springframework.cloud.gateway.config.GatewayProperties</t>
-  </si>
-  <si>
     <t>urls</t>
   </si>
   <si>
+    <t>uiConfiguration</t>
+  </si>
+  <si>
+    <t>springfox.documentation.swagger.web.UiConfiguration</t>
+  </si>
+  <si>
     <t>securityConfiguration</t>
   </si>
   <si>
@@ -271,28 +277,22 @@
     <t>springfox.documentation.swagger.web.SwaggerResourcesProvider</t>
   </si>
   <si>
-    <t>uiConfiguration</t>
-  </si>
-  <si>
-    <t>springfox.documentation.swagger.web.UiConfiguration</t>
-  </si>
-  <si>
     <t>LOGGER</t>
   </si>
   <si>
     <t>restAuthenticationEntryPoint</t>
   </si>
   <si>
+    <t>restfulAccessDeniedHandler</t>
+  </si>
+  <si>
+    <t>ignoreUrlsRemoveJwtFilter</t>
+  </si>
+  <si>
     <t>ignoreUrlsConfig</t>
   </si>
   <si>
-    <t>ignoreUrlsRemoveJwtFilter</t>
-  </si>
-  <si>
     <t>authorizationManager</t>
-  </si>
-  <si>
-    <t>restfulAccessDeniedHandler</t>
   </si>
   <si>
     <t>redisTemplate</t>
@@ -2455,7 +2455,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -2483,7 +2483,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -2511,7 +2511,7 @@
         <v>23</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -2525,7 +2525,7 @@
         <v>23</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
@@ -2547,7 +2547,7 @@
         <v>52</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>23</v>
@@ -2561,7 +2561,7 @@
         <v>58</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>23</v>

--- a/data/mall-swarm/mall-gateway_structure.xlsx
+++ b/data/mall-swarm/mall-gateway_structure.xlsx
@@ -15,12 +15,14 @@
     <sheet name="interfaceToInterfaceRelations" r:id="rId9" sheetId="7"/>
     <sheet name="fieldClassRelations" r:id="rId10" sheetId="8"/>
     <sheet name="fieldInterfaceRelations" r:id="rId11" sheetId="9"/>
+    <sheet name="classNumberOfLines" r:id="rId12" sheetId="10"/>
+    <sheet name="methodNumberOfLines" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="123">
   <si>
     <t>Class Name</t>
   </si>
@@ -238,18 +240,18 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>gatewayProperties</t>
+  </si>
+  <si>
+    <t>org.springframework.cloud.gateway.config.GatewayProperties</t>
+  </si>
+  <si>
     <t>routeLocator</t>
   </si>
   <si>
     <t>org.springframework.cloud.gateway.route.RouteLocator</t>
   </si>
   <si>
-    <t>gatewayProperties</t>
-  </si>
-  <si>
-    <t>org.springframework.cloud.gateway.config.GatewayProperties</t>
-  </si>
-  <si>
     <t>log</t>
   </si>
   <si>
@@ -265,36 +267,36 @@
     <t>springfox.documentation.swagger.web.UiConfiguration</t>
   </si>
   <si>
+    <t>swaggerResources</t>
+  </si>
+  <si>
+    <t>springfox.documentation.swagger.web.SwaggerResourcesProvider</t>
+  </si>
+  <si>
     <t>securityConfiguration</t>
   </si>
   <si>
     <t>springfox.documentation.swagger.web.SecurityConfiguration</t>
   </si>
   <si>
-    <t>swaggerResources</t>
-  </si>
-  <si>
-    <t>springfox.documentation.swagger.web.SwaggerResourcesProvider</t>
-  </si>
-  <si>
     <t>LOGGER</t>
   </si>
   <si>
+    <t>authorizationManager</t>
+  </si>
+  <si>
+    <t>ignoreUrlsRemoveJwtFilter</t>
+  </si>
+  <si>
     <t>restAuthenticationEntryPoint</t>
   </si>
   <si>
     <t>restfulAccessDeniedHandler</t>
   </si>
   <si>
-    <t>ignoreUrlsRemoveJwtFilter</t>
-  </si>
-  <si>
     <t>ignoreUrlsConfig</t>
   </si>
   <si>
-    <t>authorizationManager</t>
-  </si>
-  <si>
     <t>redisTemplate</t>
   </si>
   <si>
@@ -338,6 +340,57 @@
   </si>
   <si>
     <t>Target Field Name</t>
+  </si>
+  <si>
+    <t>Number of Lines</t>
+  </si>
+  <si>
+    <t>com.macro.mall.config.RedisConfig</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
 </sst>
 </file>
@@ -2255,6 +2308,466 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D4"/>
@@ -2469,7 +2982,7 @@
         <v>23</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
@@ -2483,7 +2996,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
@@ -2497,7 +3010,7 @@
         <v>23</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
@@ -2511,7 +3024,7 @@
         <v>23</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
@@ -2525,7 +3038,7 @@
         <v>23</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -2533,13 +3046,13 @@
         <v>52</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>23</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>92</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -2547,13 +3060,13 @@
         <v>52</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>23</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>34</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
@@ -2561,7 +3074,7 @@
         <v>58</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>23</v>

--- a/data/mall-swarm/mall-gateway_structure.xlsx
+++ b/data/mall-swarm/mall-gateway_structure.xlsx
@@ -240,24 +240,24 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
+  </si>
+  <si>
+    <t>routeLocator</t>
+  </si>
+  <si>
+    <t>org.springframework.cloud.gateway.route.RouteLocator</t>
+  </si>
+  <si>
     <t>gatewayProperties</t>
   </si>
   <si>
     <t>org.springframework.cloud.gateway.config.GatewayProperties</t>
   </si>
   <si>
-    <t>routeLocator</t>
-  </si>
-  <si>
-    <t>org.springframework.cloud.gateway.route.RouteLocator</t>
-  </si>
-  <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
-  </si>
-  <si>
     <t>urls</t>
   </si>
   <si>
@@ -285,16 +285,16 @@
     <t>authorizationManager</t>
   </si>
   <si>
+    <t>restAuthenticationEntryPoint</t>
+  </si>
+  <si>
+    <t>restfulAccessDeniedHandler</t>
+  </si>
+  <si>
+    <t>ignoreUrlsConfig</t>
+  </si>
+  <si>
     <t>ignoreUrlsRemoveJwtFilter</t>
-  </si>
-  <si>
-    <t>restAuthenticationEntryPoint</t>
-  </si>
-  <si>
-    <t>restfulAccessDeniedHandler</t>
-  </si>
-  <si>
-    <t>ignoreUrlsConfig</t>
   </si>
   <si>
     <t>redisTemplate</t>
@@ -2968,7 +2968,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -2996,7 +2996,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -3010,7 +3010,7 @@
         <v>23</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -3024,7 +3024,7 @@
         <v>23</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -3038,7 +3038,7 @@
         <v>23</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -3046,13 +3046,13 @@
         <v>52</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>23</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>34</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">
@@ -3060,13 +3060,13 @@
         <v>52</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>23</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>92</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -3074,7 +3074,7 @@
         <v>58</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>23</v>

--- a/data/mall-swarm/mall-gateway_structure.xlsx
+++ b/data/mall-swarm/mall-gateway_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="135">
   <si>
     <t>Class Name</t>
   </si>
@@ -240,18 +240,18 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>routeLocator</t>
+  </si>
+  <si>
+    <t>org.springframework.cloud.gateway.route.RouteLocator</t>
+  </si>
+  <si>
     <t>log</t>
   </si>
   <si>
     <t>org.slf4j.Logger</t>
   </si>
   <si>
-    <t>routeLocator</t>
-  </si>
-  <si>
-    <t>org.springframework.cloud.gateway.route.RouteLocator</t>
-  </si>
-  <si>
     <t>gatewayProperties</t>
   </si>
   <si>
@@ -261,42 +261,42 @@
     <t>urls</t>
   </si>
   <si>
+    <t>swaggerResources</t>
+  </si>
+  <si>
+    <t>springfox.documentation.swagger.web.SwaggerResourcesProvider</t>
+  </si>
+  <si>
+    <t>securityConfiguration</t>
+  </si>
+  <si>
+    <t>springfox.documentation.swagger.web.SecurityConfiguration</t>
+  </si>
+  <si>
     <t>uiConfiguration</t>
   </si>
   <si>
     <t>springfox.documentation.swagger.web.UiConfiguration</t>
   </si>
   <si>
-    <t>swaggerResources</t>
-  </si>
-  <si>
-    <t>springfox.documentation.swagger.web.SwaggerResourcesProvider</t>
-  </si>
-  <si>
-    <t>securityConfiguration</t>
-  </si>
-  <si>
-    <t>springfox.documentation.swagger.web.SecurityConfiguration</t>
-  </si>
-  <si>
     <t>LOGGER</t>
   </si>
   <si>
+    <t>restAuthenticationEntryPoint</t>
+  </si>
+  <si>
+    <t>ignoreUrlsRemoveJwtFilter</t>
+  </si>
+  <si>
+    <t>ignoreUrlsConfig</t>
+  </si>
+  <si>
     <t>authorizationManager</t>
   </si>
   <si>
-    <t>restAuthenticationEntryPoint</t>
-  </si>
-  <si>
     <t>restfulAccessDeniedHandler</t>
   </si>
   <si>
-    <t>ignoreUrlsConfig</t>
-  </si>
-  <si>
-    <t>ignoreUrlsRemoveJwtFilter</t>
-  </si>
-  <si>
     <t>redisTemplate</t>
   </si>
   <si>
@@ -348,49 +348,85 @@
     <t>com.macro.mall.config.RedisConfig</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>46</t>
+    <t>56</t>
+  </si>
+  <si>
+    <t>RedisConfig()</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>SwaggerResourceConfig(org.springframework.cloud.gateway.route.RouteLocator, org.springframework.cloud.gateway.config.GatewayProperties)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>IgnoreUrlsConfig()</t>
+  </si>
+  <si>
+    <t>SwaggerHandler(springfox.documentation.swagger.web.SwaggerResourcesProvider)</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>AuthGlobalFilter()</t>
+  </si>
+  <si>
+    <t>ResourceServerConfig(com.macro.mall.authorization.AuthorizationManager, com.macro.mall.config.IgnoreUrlsConfig, com.macro.mall.component.RestfulAccessDeniedHandler, com.macro.mall.component.RestAuthenticationEntryPoint, com.macro.mall.filter.IgnoreUrlsRemoveJwtFilter)</t>
+  </si>
+  <si>
+    <t>GlobalCorsConfig()</t>
+  </si>
+  <si>
+    <t>MallGatewayApplication()</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>AuthorizationManager()</t>
+  </si>
+  <si>
+    <t>RestAuthenticationEntryPoint()</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>IgnoreUrlsRemoveJwtFilter()</t>
+  </si>
+  <si>
+    <t>RestfulAccessDeniedHandler()</t>
   </si>
 </sst>
 </file>
@@ -2427,7 +2463,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2446,13 +2482,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
@@ -2460,10 +2496,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>98</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4">
@@ -2471,10 +2507,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5">
@@ -2482,10 +2518,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6">
@@ -2493,10 +2529,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7">
@@ -2504,10 +2540,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
@@ -2515,10 +2551,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
@@ -2526,18 +2562,18 @@
         <v>4</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>108</v>
@@ -2545,13 +2581,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -2559,10 +2595,10 @@
         <v>34</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
@@ -2570,10 +2606,10 @@
         <v>34</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14">
@@ -2581,10 +2617,10 @@
         <v>34</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
@@ -2592,40 +2628,40 @@
         <v>34</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>108</v>
@@ -2633,134 +2669,266 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B30" t="s" s="0">
+      <c r="B41" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="C30" t="s" s="0">
-        <v>120</v>
+      <c r="C41" t="s" s="0">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2968,7 +3136,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -2982,7 +3150,7 @@
         <v>23</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
@@ -2996,7 +3164,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
@@ -3010,7 +3178,7 @@
         <v>23</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -3024,7 +3192,7 @@
         <v>23</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
@@ -3038,7 +3206,7 @@
         <v>23</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
@@ -3060,7 +3228,7 @@
         <v>52</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>23</v>
@@ -3074,7 +3242,7 @@
         <v>58</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>23</v>

--- a/data/mall-swarm/mall-gateway_structure.xlsx
+++ b/data/mall-swarm/mall-gateway_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="134">
   <si>
     <t>Class Name</t>
   </si>
@@ -346,9 +346,6 @@
   </si>
   <si>
     <t>com.macro.mall.config.RedisConfig</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>22</t>
@@ -2365,7 +2362,7 @@
         <v>107</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3">
@@ -2373,7 +2370,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4">
@@ -2381,7 +2378,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5">
@@ -2389,7 +2386,7 @@
         <v>65</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
@@ -2397,7 +2394,7 @@
         <v>38</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7">
@@ -2405,7 +2402,7 @@
         <v>42</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8">
@@ -2413,7 +2410,7 @@
         <v>47</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
@@ -2421,7 +2418,7 @@
         <v>50</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
@@ -2429,7 +2426,7 @@
         <v>52</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
@@ -2437,7 +2434,7 @@
         <v>56</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
@@ -2445,7 +2442,7 @@
         <v>58</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
@@ -2453,7 +2450,7 @@
         <v>60</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2485,10 +2482,10 @@
         <v>107</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3">
@@ -2499,7 +2496,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4">
@@ -2510,7 +2507,7 @@
         <v>30</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5">
@@ -2521,7 +2518,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6">
@@ -2532,7 +2529,7 @@
         <v>25</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
@@ -2543,7 +2540,7 @@
         <v>26</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
@@ -2554,7 +2551,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
@@ -2565,7 +2562,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
@@ -2576,7 +2573,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11">
@@ -2584,10 +2581,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>119</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -2598,7 +2595,7 @@
         <v>35</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
@@ -2609,7 +2606,7 @@
         <v>36</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14">
@@ -2620,7 +2617,7 @@
         <v>11</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15">
@@ -2631,7 +2628,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
@@ -2642,7 +2639,7 @@
         <v>37</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
@@ -2653,7 +2650,7 @@
         <v>18</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18">
@@ -2661,10 +2658,10 @@
         <v>34</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
@@ -2675,7 +2672,7 @@
         <v>67</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20">
@@ -2686,7 +2683,7 @@
         <v>66</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21">
@@ -2697,7 +2694,7 @@
         <v>68</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22">
@@ -2705,10 +2702,10 @@
         <v>65</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23">
@@ -2719,7 +2716,7 @@
         <v>40</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24">
@@ -2730,7 +2727,7 @@
         <v>39</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
@@ -2738,10 +2735,10 @@
         <v>38</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26">
@@ -2752,7 +2749,7 @@
         <v>43</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27">
@@ -2763,7 +2760,7 @@
         <v>45</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28">
@@ -2771,10 +2768,10 @@
         <v>42</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29">
@@ -2785,7 +2782,7 @@
         <v>48</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
@@ -2793,10 +2790,10 @@
         <v>47</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2804,7 @@
         <v>51</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32">
@@ -2815,10 +2812,10 @@
         <v>50</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33">
@@ -2829,7 +2826,7 @@
         <v>53</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34">
@@ -2840,7 +2837,7 @@
         <v>54</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35">
@@ -2851,7 +2848,7 @@
         <v>55</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36">
@@ -2859,10 +2856,10 @@
         <v>52</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37">
@@ -2873,7 +2870,7 @@
         <v>57</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38">
@@ -2881,10 +2878,10 @@
         <v>56</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39">
@@ -2895,7 +2892,7 @@
         <v>59</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40">
@@ -2903,10 +2900,10 @@
         <v>58</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41">
@@ -2917,7 +2914,7 @@
         <v>61</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42">
@@ -2925,10 +2922,10 @@
         <v>60</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/data/mall-swarm/mall-gateway_structure.xlsx
+++ b/data/mall-swarm/mall-gateway_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="134">
   <si>
     <t>Class Name</t>
   </si>
@@ -36,15 +36,24 @@
     <t>Return Type</t>
   </si>
   <si>
+    <t>com.macro.mall.config.RedisConfig</t>
+  </si>
+  <si>
+    <t>RedisConfig()</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
     <t>com.macro.mall.config.SwaggerResourceConfig</t>
   </si>
   <si>
     <t>equals(java.lang.Object)</t>
   </si>
   <si>
-    <t>public</t>
-  </si>
-  <si>
     <t>boolean</t>
   </si>
   <si>
@@ -54,9 +63,6 @@
     <t>protected</t>
   </si>
   <si>
-    <t>void</t>
-  </si>
-  <si>
     <t>toString()</t>
   </si>
   <si>
@@ -69,6 +75,9 @@
     <t>java.util.List</t>
   </si>
   <si>
+    <t>SwaggerResourceConfig(org.springframework.cloud.gateway.route.RouteLocator, org.springframework.cloud.gateway.config.GatewayProperties)</t>
+  </si>
+  <si>
     <t>getClass()</t>
   </si>
   <si>
@@ -132,6 +141,9 @@
     <t>getUrls()</t>
   </si>
   <si>
+    <t>IgnoreUrlsConfig()</t>
+  </si>
+  <si>
     <t>setUrls(java.util.List)</t>
   </si>
   <si>
@@ -150,6 +162,9 @@
     <t>reactor.core.publisher.Mono</t>
   </si>
   <si>
+    <t>AuthGlobalFilter()</t>
+  </si>
+  <si>
     <t>com.macro.mall.config.ResourceServerConfig</t>
   </si>
   <si>
@@ -159,6 +174,9 @@
     <t>org.springframework.security.web.server.SecurityWebFilterChain</t>
   </si>
   <si>
+    <t>ResourceServerConfig(com.macro.mall.authorization.AuthorizationManager, com.macro.mall.config.IgnoreUrlsConfig, com.macro.mall.component.RestfulAccessDeniedHandler, com.macro.mall.component.RestAuthenticationEntryPoint, com.macro.mall.filter.IgnoreUrlsRemoveJwtFilter)</t>
+  </si>
+  <si>
     <t>jwtAuthenticationConverter()</t>
   </si>
   <si>
@@ -174,9 +192,15 @@
     <t>org.springframework.web.cors.reactive.CorsWebFilter</t>
   </si>
   <si>
+    <t>GlobalCorsConfig()</t>
+  </si>
+  <si>
     <t>com.macro.mall.MallGatewayApplication</t>
   </si>
   <si>
+    <t>MallGatewayApplication()</t>
+  </si>
+  <si>
     <t>main(java.lang.String[])</t>
   </si>
   <si>
@@ -189,12 +213,18 @@
     <t>check(reactor.core.publisher.Mono, java.lang.Object)</t>
   </si>
   <si>
+    <t>AuthorizationManager()</t>
+  </si>
+  <si>
     <t>lambda$check$0(java.lang.String)</t>
   </si>
   <si>
     <t>com.macro.mall.component.RestAuthenticationEntryPoint</t>
   </si>
   <si>
+    <t>RestAuthenticationEntryPoint()</t>
+  </si>
+  <si>
     <t>commence(org.springframework.web.server.ServerWebExchange, org.springframework.security.core.AuthenticationException)</t>
   </si>
   <si>
@@ -204,12 +234,18 @@
     <t>filter(org.springframework.web.server.ServerWebExchange, org.springframework.web.server.WebFilterChain)</t>
   </si>
   <si>
+    <t>IgnoreUrlsRemoveJwtFilter()</t>
+  </si>
+  <si>
     <t>com.macro.mall.component.RestfulAccessDeniedHandler</t>
   </si>
   <si>
     <t>handle(org.springframework.web.server.ServerWebExchange, org.springframework.security.access.AccessDeniedException)</t>
   </si>
   <si>
+    <t>RestfulAccessDeniedHandler()</t>
+  </si>
+  <si>
     <t>Interface Name</t>
   </si>
   <si>
@@ -231,6 +267,9 @@
     <t>swaggerResources()</t>
   </si>
   <si>
+    <t>SwaggerHandler(springfox.documentation.swagger.web.SwaggerResourcesProvider)</t>
+  </si>
+  <si>
     <t>Field Name</t>
   </si>
   <si>
@@ -240,6 +279,12 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>gatewayProperties</t>
+  </si>
+  <si>
+    <t>org.springframework.cloud.gateway.config.GatewayProperties</t>
+  </si>
+  <si>
     <t>routeLocator</t>
   </si>
   <si>
@@ -252,27 +297,21 @@
     <t>org.slf4j.Logger</t>
   </si>
   <si>
-    <t>gatewayProperties</t>
-  </si>
-  <si>
-    <t>org.springframework.cloud.gateway.config.GatewayProperties</t>
-  </si>
-  <si>
     <t>urls</t>
   </si>
   <si>
+    <t>securityConfiguration</t>
+  </si>
+  <si>
+    <t>springfox.documentation.swagger.web.SecurityConfiguration</t>
+  </si>
+  <si>
     <t>swaggerResources</t>
   </si>
   <si>
     <t>springfox.documentation.swagger.web.SwaggerResourcesProvider</t>
   </si>
   <si>
-    <t>securityConfiguration</t>
-  </si>
-  <si>
-    <t>springfox.documentation.swagger.web.SecurityConfiguration</t>
-  </si>
-  <si>
     <t>uiConfiguration</t>
   </si>
   <si>
@@ -282,21 +321,21 @@
     <t>LOGGER</t>
   </si>
   <si>
+    <t>restfulAccessDeniedHandler</t>
+  </si>
+  <si>
+    <t>authorizationManager</t>
+  </si>
+  <si>
+    <t>ignoreUrlsConfig</t>
+  </si>
+  <si>
     <t>restAuthenticationEntryPoint</t>
   </si>
   <si>
     <t>ignoreUrlsRemoveJwtFilter</t>
   </si>
   <si>
-    <t>ignoreUrlsConfig</t>
-  </si>
-  <si>
-    <t>authorizationManager</t>
-  </si>
-  <si>
-    <t>restfulAccessDeniedHandler</t>
-  </si>
-  <si>
     <t>redisTemplate</t>
   </si>
   <si>
@@ -345,9 +384,6 @@
     <t>Number of Lines</t>
   </si>
   <si>
-    <t>com.macro.mall.config.RedisConfig</t>
-  </si>
-  <si>
     <t>22</t>
   </si>
   <si>
@@ -369,61 +405,25 @@
     <t>56</t>
   </si>
   <si>
-    <t>RedisConfig()</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>SwaggerResourceConfig(org.springframework.cloud.gateway.route.RouteLocator, org.springframework.cloud.gateway.config.GatewayProperties)</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>IgnoreUrlsConfig()</t>
-  </si>
-  <si>
-    <t>SwaggerHandler(springfox.documentation.swagger.web.SwaggerResourcesProvider)</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
-    <t>AuthGlobalFilter()</t>
-  </si>
-  <si>
-    <t>ResourceServerConfig(com.macro.mall.authorization.AuthorizationManager, com.macro.mall.config.IgnoreUrlsConfig, com.macro.mall.component.RestfulAccessDeniedHandler, com.macro.mall.component.RestAuthenticationEntryPoint, com.macro.mall.filter.IgnoreUrlsRemoveJwtFilter)</t>
-  </si>
-  <si>
-    <t>GlobalCorsConfig()</t>
-  </si>
-  <si>
-    <t>MallGatewayApplication()</t>
-  </si>
-  <si>
     <t>54</t>
   </si>
   <si>
-    <t>AuthorizationManager()</t>
-  </si>
-  <si>
-    <t>RestAuthenticationEntryPoint()</t>
-  </si>
-  <si>
     <t>14</t>
-  </si>
-  <si>
-    <t>IgnoreUrlsRemoveJwtFilter()</t>
-  </si>
-  <si>
-    <t>RestfulAccessDeniedHandler()</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -504,13 +504,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>10</v>
@@ -518,21 +518,21 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>11</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>13</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>15</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>17</v>
@@ -569,12 +569,12 @@
         <v>6</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>18</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>20</v>
@@ -597,12 +597,12 @@
         <v>6</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>21</v>
@@ -611,18 +611,18 @@
         <v>6</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s" s="0">
         <v>7</v>
@@ -630,27 +630,27 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>25</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s" s="0">
         <v>10</v>
@@ -658,27 +658,27 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C14" t="s" s="0">
-        <v>23</v>
-      </c>
       <c r="D14" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s" s="0">
         <v>7</v>
@@ -686,27 +686,27 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s" s="0">
         <v>10</v>
@@ -714,119 +714,119 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>32</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s" s="0">
         <v>34</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s" s="0">
-        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s" s="0">
         <v>18</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s" s="0">
         <v>20</v>
@@ -849,12 +849,12 @@
         <v>6</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s" s="0">
         <v>21</v>
@@ -863,60 +863,60 @@
         <v>6</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s" s="0">
         <v>7</v>
@@ -924,24 +924,24 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>6</v>
@@ -952,13 +952,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s" s="0">
         <v>10</v>
@@ -966,156 +966,156 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -1123,7 +1123,7 @@
         <v>42</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>6</v>
@@ -1137,13 +1137,13 @@
         <v>42</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -1151,13 +1151,13 @@
         <v>42</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
@@ -1165,21 +1165,21 @@
         <v>42</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>6</v>
@@ -1190,114 +1190,114 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
@@ -1305,7 +1305,7 @@
         <v>47</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>6</v>
@@ -1319,13 +1319,13 @@
         <v>47</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
@@ -1333,13 +1333,13 @@
         <v>47</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
@@ -1347,13 +1347,13 @@
         <v>47</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64">
@@ -1361,21 +1361,21 @@
         <v>47</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>6</v>
@@ -1386,94 +1386,94 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>6</v>
@@ -1484,80 +1484,80 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>6</v>
@@ -1568,49 +1568,49 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B82" t="s" s="0">
         <v>18</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B83" t="s" s="0">
         <v>20</v>
@@ -1633,404 +1633,404 @@
         <v>6</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B112" t="s" s="0">
         <v>21</v>
@@ -2039,99 +2039,99 @@
         <v>6</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D116" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>6</v>
@@ -2142,198 +2142,352 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D122" t="s" s="0">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="0">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D123" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="0">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="0">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D125" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="0">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D126" t="s" s="0">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="0">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="0">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="0">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B130" t="s" s="0">
         <v>32</v>
       </c>
       <c r="C130" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D130" t="s" s="0">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="0">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C131" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="0">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="0">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B133" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C133" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D133" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B134" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C134" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D134" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B135" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C135" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D135" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B136" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C136" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D136" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B137" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C133" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D133" t="s" s="0">
-        <v>10</v>
+      <c r="C137" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D137" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B138" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C138" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D138" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B139" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C139" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D139" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B140" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C140" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D140" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B141" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C141" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D141" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B142" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C142" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D142" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B143" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C143" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D143" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B144" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C144" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D144" t="s" s="0">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2354,103 +2508,103 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2460,7 +2614,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2474,458 +2628,447 @@
         <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>99</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>99</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>99</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="B42" t="s" s="0">
-        <v>133</v>
-      </c>
-      <c r="C42" t="s" s="0">
-        <v>99</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2935,7 +3078,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2943,13 +3086,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s" s="0">
         <v>3</v>
@@ -2957,44 +3100,58 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3015,237 +3172,237 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3263,189 +3420,189 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3463,19 +3620,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3493,19 +3650,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3523,19 +3680,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3553,19 +3710,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3583,19 +3740,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/data/mall-swarm/mall-gateway_structure.xlsx
+++ b/data/mall-swarm/mall-gateway_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="134">
   <si>
     <t>Class Name</t>
   </si>
@@ -279,39 +279,39 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>routeLocator</t>
+  </si>
+  <si>
+    <t>org.springframework.cloud.gateway.route.RouteLocator</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
+  </si>
+  <si>
     <t>gatewayProperties</t>
   </si>
   <si>
     <t>org.springframework.cloud.gateway.config.GatewayProperties</t>
   </si>
   <si>
-    <t>routeLocator</t>
-  </si>
-  <si>
-    <t>org.springframework.cloud.gateway.route.RouteLocator</t>
-  </si>
-  <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
-  </si>
-  <si>
     <t>urls</t>
   </si>
   <si>
+    <t>swaggerResources</t>
+  </si>
+  <si>
+    <t>springfox.documentation.swagger.web.SwaggerResourcesProvider</t>
+  </si>
+  <si>
     <t>securityConfiguration</t>
   </si>
   <si>
     <t>springfox.documentation.swagger.web.SecurityConfiguration</t>
   </si>
   <si>
-    <t>swaggerResources</t>
-  </si>
-  <si>
-    <t>springfox.documentation.swagger.web.SwaggerResourcesProvider</t>
-  </si>
-  <si>
     <t>uiConfiguration</t>
   </si>
   <si>
@@ -321,19 +321,19 @@
     <t>LOGGER</t>
   </si>
   <si>
+    <t>authorizationManager</t>
+  </si>
+  <si>
+    <t>ignoreUrlsConfig</t>
+  </si>
+  <si>
+    <t>ignoreUrlsRemoveJwtFilter</t>
+  </si>
+  <si>
     <t>restfulAccessDeniedHandler</t>
   </si>
   <si>
-    <t>authorizationManager</t>
-  </si>
-  <si>
-    <t>ignoreUrlsConfig</t>
-  </si>
-  <si>
     <t>restAuthenticationEntryPoint</t>
-  </si>
-  <si>
-    <t>ignoreUrlsRemoveJwtFilter</t>
   </si>
   <si>
     <t>redisTemplate</t>
@@ -2614,7 +2614,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2735,10 +2735,10 @@
         <v>37</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
@@ -2746,7 +2746,7 @@
         <v>37</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>125</v>
@@ -2757,7 +2757,7 @@
         <v>37</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>125</v>
@@ -2768,10 +2768,10 @@
         <v>37</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
@@ -2779,10 +2779,10 @@
         <v>37</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16">
@@ -2790,21 +2790,21 @@
         <v>37</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18">
@@ -2812,7 +2812,7 @@
         <v>77</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>125</v>
@@ -2823,7 +2823,7 @@
         <v>77</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>125</v>
@@ -2834,7 +2834,7 @@
         <v>77</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>125</v>
@@ -2842,13 +2842,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22">
@@ -2856,10 +2856,10 @@
         <v>42</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>112</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23">
@@ -2867,21 +2867,21 @@
         <v>42</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25">
@@ -2889,10 +2889,10 @@
         <v>47</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26">
@@ -2900,65 +2900,65 @@
         <v>47</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>112</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32">
@@ -2966,7 +2966,7 @@
         <v>60</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>112</v>
@@ -2974,43 +2974,43 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>132</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>112</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>112</v>
@@ -3018,56 +3018,12 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="B38" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="C38" t="s" s="0">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="B39" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="C39" t="s" s="0">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="B40" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="C40" t="s" s="0">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="B41" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="C41" t="s" s="0">
         <v>124</v>
       </c>
     </row>
@@ -3290,7 +3246,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
@@ -3304,7 +3260,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -3318,7 +3274,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
@@ -3332,7 +3288,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>37</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
@@ -3346,7 +3302,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -3360,7 +3316,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -3368,13 +3324,13 @@
         <v>60</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>105</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16">
@@ -3382,13 +3338,13 @@
         <v>60</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>37</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17">
@@ -3396,7 +3352,7 @@
         <v>68</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>26</v>

--- a/data/mall-swarm/mall-gateway_structure.xlsx
+++ b/data/mall-swarm/mall-gateway_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="134">
   <si>
     <t>Class Name</t>
   </si>
@@ -258,13 +258,13 @@
     <t>com.macro.mall.handler.SwaggerHandler</t>
   </si>
   <si>
+    <t>swaggerResources()</t>
+  </si>
+  <si>
     <t>uiConfiguration()</t>
   </si>
   <si>
     <t>securityConfiguration()</t>
-  </si>
-  <si>
-    <t>swaggerResources()</t>
   </si>
   <si>
     <t>SwaggerHandler(springfox.documentation.swagger.web.SwaggerResourcesProvider)</t>
@@ -2614,7 +2614,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2735,10 +2735,10 @@
         <v>37</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
@@ -2746,7 +2746,7 @@
         <v>37</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>125</v>
@@ -2757,7 +2757,7 @@
         <v>37</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>125</v>
@@ -2768,10 +2768,10 @@
         <v>37</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15">
@@ -2779,10 +2779,10 @@
         <v>37</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
@@ -2790,21 +2790,21 @@
         <v>37</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18">
@@ -2812,7 +2812,7 @@
         <v>77</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>125</v>
@@ -2823,7 +2823,7 @@
         <v>77</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>125</v>
@@ -2834,7 +2834,7 @@
         <v>77</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>125</v>
@@ -2842,13 +2842,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22">
@@ -2856,10 +2856,10 @@
         <v>42</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23">
@@ -2867,21 +2867,21 @@
         <v>42</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25">
@@ -2889,10 +2889,10 @@
         <v>47</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26">
@@ -2900,40 +2900,40 @@
         <v>47</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>112</v>
@@ -2941,13 +2941,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
@@ -2955,7 +2955,7 @@
         <v>60</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>112</v>
@@ -2966,18 +2966,18 @@
         <v>60</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>112</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>112</v>
@@ -2985,45 +2985,78 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B37" t="s" s="0">
+      <c r="B39" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B40" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="C37" t="s" s="0">
+      <c r="C40" t="s" s="0">
         <v>124</v>
       </c>
     </row>
@@ -3034,7 +3067,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3059,13 +3092,13 @@
         <v>77</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3073,13 +3106,13 @@
         <v>77</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -3087,7 +3120,7 @@
         <v>77</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>6</v>
@@ -3101,12 +3134,138 @@
         <v>77</v>
       </c>
       <c r="B5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s" s="0">
+      <c r="C14" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>7</v>
       </c>
     </row>

--- a/data/mall-swarm/mall-gateway_structure.xlsx
+++ b/data/mall-swarm/mall-gateway_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="134">
   <si>
     <t>Class Name</t>
   </si>
@@ -384,6 +384,9 @@
     <t>Number of Lines</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>22</t>
   </si>
   <si>
@@ -409,9 +412,6 @@
   </si>
   <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>23</t>
@@ -2516,7 +2516,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
@@ -2524,7 +2524,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4">
@@ -2532,7 +2532,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5">
@@ -2540,7 +2540,7 @@
         <v>77</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6">
@@ -2548,7 +2548,7 @@
         <v>42</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7">
@@ -2556,7 +2556,7 @@
         <v>47</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8">
@@ -2564,7 +2564,7 @@
         <v>53</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9">
@@ -2572,7 +2572,7 @@
         <v>57</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
@@ -2580,7 +2580,7 @@
         <v>60</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
@@ -2588,7 +2588,7 @@
         <v>65</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
@@ -2596,7 +2596,7 @@
         <v>68</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
@@ -2604,7 +2604,7 @@
         <v>71</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2614,7 +2614,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2639,7 +2639,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
@@ -2650,7 +2650,7 @@
         <v>33</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4">
@@ -2658,10 +2658,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5">
@@ -2669,10 +2669,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
@@ -2680,10 +2680,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
@@ -2691,10 +2691,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
@@ -2702,10 +2702,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
@@ -2713,21 +2713,21 @@
         <v>8</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
@@ -2735,10 +2735,10 @@
         <v>37</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
@@ -2746,10 +2746,10 @@
         <v>37</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
@@ -2757,10 +2757,10 @@
         <v>37</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
@@ -2768,10 +2768,10 @@
         <v>37</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
@@ -2779,32 +2779,32 @@
         <v>37</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18">
@@ -2812,252 +2812,142 @@
         <v>77</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>112</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>125</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="B31" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="C31" t="s" s="0">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="B32" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="C32" t="s" s="0">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="B33" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="C33" t="s" s="0">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="B34" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="C34" t="s" s="0">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="B35" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="C35" t="s" s="0">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="B36" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="C36" t="s" s="0">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="B37" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="C37" t="s" s="0">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="B38" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="C38" t="s" s="0">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="B39" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="C39" t="s" s="0">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="B40" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="C40" t="s" s="0">
-        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/data/mall-swarm/mall-gateway_structure.xlsx
+++ b/data/mall-swarm/mall-gateway_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="135">
   <si>
     <t>Class Name</t>
   </si>
@@ -279,18 +279,18 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
+  </si>
+  <si>
     <t>routeLocator</t>
   </si>
   <si>
     <t>org.springframework.cloud.gateway.route.RouteLocator</t>
   </si>
   <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
-  </si>
-  <si>
     <t>gatewayProperties</t>
   </si>
   <si>
@@ -300,33 +300,33 @@
     <t>urls</t>
   </si>
   <si>
+    <t>uiConfiguration</t>
+  </si>
+  <si>
+    <t>springfox.documentation.swagger.web.UiConfiguration</t>
+  </si>
+  <si>
+    <t>securityConfiguration</t>
+  </si>
+  <si>
+    <t>springfox.documentation.swagger.web.SecurityConfiguration</t>
+  </si>
+  <si>
     <t>swaggerResources</t>
   </si>
   <si>
     <t>springfox.documentation.swagger.web.SwaggerResourcesProvider</t>
   </si>
   <si>
-    <t>securityConfiguration</t>
-  </si>
-  <si>
-    <t>springfox.documentation.swagger.web.SecurityConfiguration</t>
-  </si>
-  <si>
-    <t>uiConfiguration</t>
-  </si>
-  <si>
-    <t>springfox.documentation.swagger.web.UiConfiguration</t>
-  </si>
-  <si>
     <t>LOGGER</t>
   </si>
   <si>
+    <t>ignoreUrlsConfig</t>
+  </si>
+  <si>
     <t>authorizationManager</t>
   </si>
   <si>
-    <t>ignoreUrlsConfig</t>
-  </si>
-  <si>
     <t>ignoreUrlsRemoveJwtFilter</t>
   </si>
   <si>
@@ -412,6 +412,9 @@
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>23</t>
@@ -2614,7 +2617,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2658,10 +2661,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
@@ -2669,10 +2672,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6">
@@ -2680,7 +2683,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>120</v>
@@ -2691,7 +2694,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>120</v>
@@ -2702,7 +2705,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>120</v>
@@ -2713,7 +2716,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>120</v>
@@ -2721,13 +2724,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
@@ -2735,10 +2738,10 @@
         <v>37</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -2746,7 +2749,7 @@
         <v>37</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>126</v>
@@ -2757,10 +2760,10 @@
         <v>37</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -2768,7 +2771,7 @@
         <v>37</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>126</v>
@@ -2779,18 +2782,18 @@
         <v>37</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>126</v>
@@ -2798,13 +2801,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18">
@@ -2812,7 +2815,7 @@
         <v>77</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>126</v>
@@ -2820,21 +2823,21 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>126</v>
@@ -2842,43 +2845,43 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>126</v>
@@ -2886,67 +2889,188 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B30" t="s" s="0">
+      <c r="B40" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B41" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="C30" t="s" s="0">
+      <c r="C41" t="s" s="0">
         <v>125</v>
       </c>
     </row>
@@ -3295,7 +3419,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
@@ -3309,7 +3433,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
@@ -3323,7 +3447,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -3373,7 +3497,7 @@
         <v>60</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>26</v>
@@ -3401,7 +3525,7 @@
         <v>68</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>26</v>

--- a/data/mall-swarm/mall-gateway_structure.xlsx
+++ b/data/mall-swarm/mall-gateway_structure.xlsx
@@ -279,6 +279,12 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>gatewayProperties</t>
+  </si>
+  <si>
+    <t>org.springframework.cloud.gateway.config.GatewayProperties</t>
+  </si>
+  <si>
     <t>log</t>
   </si>
   <si>
@@ -291,49 +297,43 @@
     <t>org.springframework.cloud.gateway.route.RouteLocator</t>
   </si>
   <si>
-    <t>gatewayProperties</t>
-  </si>
-  <si>
-    <t>org.springframework.cloud.gateway.config.GatewayProperties</t>
-  </si>
-  <si>
     <t>urls</t>
   </si>
   <si>
+    <t>securityConfiguration</t>
+  </si>
+  <si>
+    <t>springfox.documentation.swagger.web.SecurityConfiguration</t>
+  </si>
+  <si>
+    <t>swaggerResources</t>
+  </si>
+  <si>
+    <t>springfox.documentation.swagger.web.SwaggerResourcesProvider</t>
+  </si>
+  <si>
     <t>uiConfiguration</t>
   </si>
   <si>
     <t>springfox.documentation.swagger.web.UiConfiguration</t>
   </si>
   <si>
-    <t>securityConfiguration</t>
-  </si>
-  <si>
-    <t>springfox.documentation.swagger.web.SecurityConfiguration</t>
-  </si>
-  <si>
-    <t>swaggerResources</t>
-  </si>
-  <si>
-    <t>springfox.documentation.swagger.web.SwaggerResourcesProvider</t>
-  </si>
-  <si>
     <t>LOGGER</t>
   </si>
   <si>
+    <t>ignoreUrlsRemoveJwtFilter</t>
+  </si>
+  <si>
+    <t>authorizationManager</t>
+  </si>
+  <si>
+    <t>restAuthenticationEntryPoint</t>
+  </si>
+  <si>
     <t>ignoreUrlsConfig</t>
   </si>
   <si>
-    <t>authorizationManager</t>
-  </si>
-  <si>
-    <t>ignoreUrlsRemoveJwtFilter</t>
-  </si>
-  <si>
     <t>restfulAccessDeniedHandler</t>
-  </si>
-  <si>
-    <t>restAuthenticationEntryPoint</t>
   </si>
   <si>
     <t>redisTemplate</t>
@@ -3419,7 +3419,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
@@ -3433,7 +3433,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>37</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -3461,7 +3461,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -3475,7 +3475,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>71</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
@@ -3489,7 +3489,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -3497,7 +3497,7 @@
         <v>60</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>26</v>
@@ -3525,7 +3525,7 @@
         <v>68</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>26</v>

--- a/data/mall-swarm/mall-gateway_structure.xlsx
+++ b/data/mall-swarm/mall-gateway_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="135">
   <si>
     <t>Class Name</t>
   </si>
@@ -279,6 +279,12 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>routeLocator</t>
+  </si>
+  <si>
+    <t>org.springframework.cloud.gateway.route.RouteLocator</t>
+  </si>
+  <si>
     <t>gatewayProperties</t>
   </si>
   <si>
@@ -291,46 +297,40 @@
     <t>org.slf4j.Logger</t>
   </si>
   <si>
-    <t>routeLocator</t>
-  </si>
-  <si>
-    <t>org.springframework.cloud.gateway.route.RouteLocator</t>
-  </si>
-  <si>
     <t>urls</t>
   </si>
   <si>
+    <t>swaggerResources</t>
+  </si>
+  <si>
+    <t>springfox.documentation.swagger.web.SwaggerResourcesProvider</t>
+  </si>
+  <si>
+    <t>uiConfiguration</t>
+  </si>
+  <si>
+    <t>springfox.documentation.swagger.web.UiConfiguration</t>
+  </si>
+  <si>
     <t>securityConfiguration</t>
   </si>
   <si>
     <t>springfox.documentation.swagger.web.SecurityConfiguration</t>
   </si>
   <si>
-    <t>swaggerResources</t>
-  </si>
-  <si>
-    <t>springfox.documentation.swagger.web.SwaggerResourcesProvider</t>
-  </si>
-  <si>
-    <t>uiConfiguration</t>
-  </si>
-  <si>
-    <t>springfox.documentation.swagger.web.UiConfiguration</t>
-  </si>
-  <si>
     <t>LOGGER</t>
   </si>
   <si>
+    <t>restAuthenticationEntryPoint</t>
+  </si>
+  <si>
+    <t>ignoreUrlsConfig</t>
+  </si>
+  <si>
     <t>ignoreUrlsRemoveJwtFilter</t>
   </si>
   <si>
     <t>authorizationManager</t>
-  </si>
-  <si>
-    <t>restAuthenticationEntryPoint</t>
-  </si>
-  <si>
-    <t>ignoreUrlsConfig</t>
   </si>
   <si>
     <t>restfulAccessDeniedHandler</t>
@@ -2617,7 +2617,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2925,21 +2925,21 @@
         <v>53</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
@@ -2947,21 +2947,21 @@
         <v>57</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
@@ -2969,10 +2969,10 @@
         <v>60</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33">
@@ -2980,10 +2980,10 @@
         <v>60</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
@@ -2991,7 +2991,7 @@
         <v>60</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>120</v>
@@ -2999,10 +2999,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>120</v>
@@ -3013,21 +3013,21 @@
         <v>65</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
@@ -3035,21 +3035,21 @@
         <v>68</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
@@ -3057,20 +3057,9 @@
         <v>71</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="B41" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="C41" t="s" s="0">
         <v>125</v>
       </c>
     </row>
@@ -3419,7 +3408,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -3433,7 +3422,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
@@ -3447,7 +3436,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
@@ -3461,7 +3450,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
@@ -3475,7 +3464,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
@@ -3497,13 +3486,13 @@
         <v>60</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>37</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
@@ -3511,13 +3500,13 @@
         <v>60</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>105</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
@@ -3525,7 +3514,7 @@
         <v>68</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>26</v>
